--- a/GameAssets/Tables/develop/Spawn.xlsx
+++ b/GameAssets/Tables/develop/Spawn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="生成Entity&amp;Spawn" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>主键</t>
   </si>
@@ -70,18 +70,18 @@
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>spawnType</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>position</t>
   </si>
   <si>
@@ -94,70 +94,148 @@
     <t>5000</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-43.1:8.1</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>10001:10001:10001:10001</t>
   </si>
   <si>
     <t>5001</t>
   </si>
   <si>
+    <t>-43.18:12.83</t>
+  </si>
+  <si>
+    <t>4.57</t>
+  </si>
+  <si>
+    <t>10001:10002:10003:10004</t>
+  </si>
+  <si>
     <t>5002</t>
   </si>
   <si>
+    <t>-49.52:0.32</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>10002:10001:10006</t>
+  </si>
+  <si>
     <t>5003</t>
   </si>
   <si>
+    <t>-41.15:0.32</t>
+  </si>
+  <si>
+    <t>7.92</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
     <t>5004</t>
   </si>
   <si>
+    <t>-27.67:-6.87</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>10004:10005</t>
+  </si>
+  <si>
     <t>5005</t>
   </si>
   <si>
+    <t>-27.67:-2.08</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
     <t>5006</t>
   </si>
   <si>
+    <t>-11.86:-2.08</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>10006:10002:10004</t>
+  </si>
+  <si>
     <t>5007</t>
   </si>
   <si>
+    <t>-3.96:-2.08</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
     <t>5008</t>
   </si>
   <si>
+    <t>-3.96:-9.56</t>
+  </si>
+  <si>
+    <t>6.44</t>
+  </si>
+  <si>
+    <t>10006:10007</t>
+  </si>
+  <si>
     <t>5009</t>
   </si>
   <si>
+    <t>-22.8:1.2</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>10003:10004:10005</t>
+  </si>
+  <si>
     <t>5010</t>
   </si>
   <si>
+    <t>-22.8:7.04</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
     <t>5011</t>
   </si>
   <si>
-    <t>5012</t>
-  </si>
-  <si>
-    <t>5013</t>
-  </si>
-  <si>
-    <t>5014</t>
-  </si>
-  <si>
-    <t>5015</t>
-  </si>
-  <si>
-    <t>5016</t>
-  </si>
-  <si>
-    <t>5017</t>
-  </si>
-  <si>
-    <t>5018</t>
-  </si>
-  <si>
-    <t>5019</t>
+    <t>-10.7:7.04</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>10005:10002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -173,6 +251,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -186,6 +292,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,14 +344,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,7 +352,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +360,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -261,65 +375,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -327,6 +400,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -337,13 +415,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,24 +481,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -397,18 +529,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,36 +541,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,24 +565,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -500,12 +584,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +606,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,21 +653,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,148 +711,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -788,52 +866,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1096,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1133,24 +1211,24 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1162,107 +1240,208 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/GameAssets/Tables/develop/Spawn.xlsx
+++ b/GameAssets/Tables/develop/Spawn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成Entity&amp;Spawn" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>主键</t>
   </si>
@@ -94,6 +94,21 @@
     <t>5000</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-26.06:2.51</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -106,7 +121,7 @@
     <t>10001:10001:10001:10001</t>
   </si>
   <si>
-    <t>5001</t>
+    <t>5002</t>
   </si>
   <si>
     <t>-43.18:12.83</t>
@@ -118,7 +133,7 @@
     <t>10001:10002:10003:10004</t>
   </si>
   <si>
-    <t>5002</t>
+    <t>5003</t>
   </si>
   <si>
     <t>-49.52:0.32</t>
@@ -130,7 +145,7 @@
     <t>10002:10001:10006</t>
   </si>
   <si>
-    <t>5003</t>
+    <t>5004</t>
   </si>
   <si>
     <t>-41.15:0.32</t>
@@ -142,7 +157,7 @@
     <t>10003</t>
   </si>
   <si>
-    <t>5004</t>
+    <t>5005</t>
   </si>
   <si>
     <t>-27.67:-6.87</t>
@@ -154,7 +169,7 @@
     <t>10004:10005</t>
   </si>
   <si>
-    <t>5005</t>
+    <t>5006</t>
   </si>
   <si>
     <t>-27.67:-2.08</t>
@@ -163,7 +178,7 @@
     <t>4.72</t>
   </si>
   <si>
-    <t>5006</t>
+    <t>5007</t>
   </si>
   <si>
     <t>-11.86:-2.08</t>
@@ -175,7 +190,7 @@
     <t>10006:10002:10004</t>
   </si>
   <si>
-    <t>5007</t>
+    <t>5008</t>
   </si>
   <si>
     <t>-3.96:-2.08</t>
@@ -184,7 +199,7 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>5008</t>
+    <t>5009</t>
   </si>
   <si>
     <t>-3.96:-9.56</t>
@@ -196,7 +211,7 @@
     <t>10006:10007</t>
   </si>
   <si>
-    <t>5009</t>
+    <t>5010</t>
   </si>
   <si>
     <t>-22.8:1.2</t>
@@ -208,7 +223,7 @@
     <t>10003:10004:10005</t>
   </si>
   <si>
-    <t>5010</t>
+    <t>5011</t>
   </si>
   <si>
     <t>-22.8:7.04</t>
@@ -220,7 +235,7 @@
     <t>10002</t>
   </si>
   <si>
-    <t>5011</t>
+    <t>5012</t>
   </si>
   <si>
     <t>-10.7:7.04</t>
@@ -235,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -251,55 +266,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,6 +323,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -389,7 +383,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,49 +430,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,121 +568,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,21 +621,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,6 +653,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,148 +726,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,52 +881,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1174,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1262,186 +1277,203 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/GameAssets/Tables/develop/Spawn.xlsx
+++ b/GameAssets/Tables/develop/Spawn.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>主键</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>float[]</t>
   </si>
   <si>
     <t>float</t>
@@ -1192,7 +1195,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1232,248 +1235,248 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/GameAssets/Tables/develop/Spawn.xlsx
+++ b/GameAssets/Tables/develop/Spawn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="14985"/>
   </bookViews>
   <sheets>
     <sheet name="生成Entity&amp;Spawn" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>5000</t>
   </si>
   <si>
-    <t>3</t>
+    <t>1</t>
   </si>
   <si>
     <t>-26.06:2.51</t>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/GameAssets/Tables/develop/Spawn.xlsx
+++ b/GameAssets/Tables/develop/Spawn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14985"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="生成Entity&amp;Spawn" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
     <t>6.44</t>
   </si>
   <si>
-    <t>10006:10007</t>
+    <t>10006:10006</t>
   </si>
   <si>
     <t>5010</t>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/GameAssets/Tables/develop/Spawn.xlsx
+++ b/GameAssets/Tables/develop/Spawn.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>主键</t>
   </si>
@@ -100,7 +100,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>-26.06:2.51</t>
+    <t>-47.51:20.61</t>
   </si>
   <si>
     <t>0</t>
@@ -115,7 +115,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>-43.1:8.1</t>
+    <t>-29.83:20</t>
   </si>
   <si>
     <t>3.8</t>
@@ -127,7 +127,7 @@
     <t>5002</t>
   </si>
   <si>
-    <t>-43.18:12.83</t>
+    <t>-18.14:12.83</t>
   </si>
   <si>
     <t>4.57</t>
@@ -139,7 +139,7 @@
     <t>5003</t>
   </si>
   <si>
-    <t>-49.52:0.32</t>
+    <t>-5.28:0.32</t>
   </si>
   <si>
     <t>6.3</t>
@@ -151,7 +151,7 @@
     <t>5004</t>
   </si>
   <si>
-    <t>-41.15:0.32</t>
+    <t>-5.28:8.83</t>
   </si>
   <si>
     <t>7.92</t>
@@ -163,7 +163,7 @@
     <t>5005</t>
   </si>
   <si>
-    <t>-27.67:-6.87</t>
+    <t>-5.28:-1.83</t>
   </si>
   <si>
     <t>4.6</t>
@@ -175,7 +175,7 @@
     <t>5006</t>
   </si>
   <si>
-    <t>-27.67:-2.08</t>
+    <t>-25.35:-1.83</t>
   </si>
   <si>
     <t>4.72</t>
@@ -184,7 +184,7 @@
     <t>5007</t>
   </si>
   <si>
-    <t>-11.86:-2.08</t>
+    <t>-45.2:-1.83</t>
   </si>
   <si>
     <t>7.9</t>
@@ -196,58 +196,10 @@
     <t>5008</t>
   </si>
   <si>
-    <t>-3.96:-2.08</t>
+    <t>-45.2:8.68</t>
   </si>
   <si>
     <t>0.1</t>
-  </si>
-  <si>
-    <t>5009</t>
-  </si>
-  <si>
-    <t>-3.96:-9.56</t>
-  </si>
-  <si>
-    <t>6.44</t>
-  </si>
-  <si>
-    <t>10006:10006</t>
-  </si>
-  <si>
-    <t>5010</t>
-  </si>
-  <si>
-    <t>-22.8:1.2</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>10003:10004:10005</t>
-  </si>
-  <si>
-    <t>5011</t>
-  </si>
-  <si>
-    <t>-22.8:7.04</t>
-  </si>
-  <si>
-    <t>6.16</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>5012</t>
-  </si>
-  <si>
-    <t>-10.7:7.04</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>10005:10002</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1409,74 +1361,6 @@
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/GameAssets/Tables/develop/Spawn.xlsx
+++ b/GameAssets/Tables/develop/Spawn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成Entity&amp;Spawn" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>主键</t>
   </si>
@@ -157,7 +157,7 @@
     <t>7.92</t>
   </si>
   <si>
-    <t>10003</t>
+    <t>10003:10005</t>
   </si>
   <si>
     <t>5005</t>
@@ -169,7 +169,7 @@
     <t>4.6</t>
   </si>
   <si>
-    <t>10004:10005</t>
+    <t>10004:10005:10007</t>
   </si>
   <si>
     <t>5006</t>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>10002:10001:10006:10007</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1150,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1360,7 +1363,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
